--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F24DF-BB90-4686-935A-51008501E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A258188-FBC5-4FDD-8512-4772DC1F6001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DE85291-5C09-423A-A30D-0471F48EC2EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1A96DBE-E5B9-4A8F-9F42-0BE9944C9534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A8EFAB-99FB-4923-91DA-87AD3A6308CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02459EB1-8901-46EC-A369-149D2D0ED110}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f11_95RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A258188-FBC5-4FDD-8512-4772DC1F6001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A626C8E2-7290-4E82-96C3-B1B9109D3660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1A96DBE-E5B9-4A8F-9F42-0BE9944C9534}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{B36AA5D2-489A-4D89-B0B8-A04C4E3237F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02459EB1-8901-46EC-A369-149D2D0ED110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29176458-ECF1-43D7-9C6F-BF0FF87CB97F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A626C8E2-7290-4E82-96C3-B1B9109D3660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6869F9A6-BB5F-4495-B35B-CE1F8CBF4940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{B36AA5D2-489A-4D89-B0B8-A04C4E3237F0}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{79C919E8-4FFA-42F5-8F6B-05995F503775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29176458-ECF1-43D7-9C6F-BF0FF87CB97F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3923E11F-FE5D-47FB-B89E-B1BC5D226D07}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
